--- a/customers.xlsx
+++ b/customers.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman Somani\Desktop\schoolmg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78670EAA-02F3-46BD-85DB-3507405ABCB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -139,26 +133,26 @@
     <t>bhilwara</t>
   </si>
   <si>
-    <t>Johnn</t>
-  </si>
-  <si>
-    <t>Doee</t>
-  </si>
-  <si>
-    <t>doe@abc.in</t>
-  </si>
-  <si>
-    <t>Goa</t>
+    <t>aman</t>
+  </si>
+  <si>
+    <t>somani</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>am@abc.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -268,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -320,7 +314,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -514,26 +508,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -559,7 +553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -585,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -611,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -637,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -663,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -689,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -715,7 +709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -741,7 +735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -749,34 +743,34 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>8824642220</v>
+        <v>123456</v>
       </c>
       <c r="D9" s="2">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{F07FD7C8-DD15-4C82-9100-2E451C024C88}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{1B1D289E-51A4-45C4-AEC9-988EAA6CF223}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{BE91EA30-35CE-499E-B572-529E736CBB20}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{2C87E6DC-77E9-4F5D-86CC-3EB5979ED02C}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{AFC879BC-6AC2-4CDC-A9A2-9906F987F10B}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{F83A70E8-CC2C-45F5-8DCC-93482AEE084E}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{FCAF8C71-3E4B-467B-8711-0E4E370D363D}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{7759A641-6E1C-4D90-8AF7-14852A098DE7}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
